--- a/biology/Biochimie/Toxine/Toxine.xlsx
+++ b/biology/Biochimie/Toxine/Toxine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une toxine est une substance chimique organique, c'est-à-dire produite par un être vivant, et toxique. Les toxines peuvent causer des effets allant des irritations ou symptômes légers à des conséquences plus graves, pouvant notamment entraîner la mort, même à des doses extrêmement faibles comme c'est le cas avec la toxine botulique.
 Le terme biotoxine est parfois employé pour préciser que la substance toxique est produite par les activités métaboliques de certains êtres vivants.
@@ -520,7 +532,9 @@
           <t>Nature des toxines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La variété des toxines est très grande : il est très difficile de les définir tant leurs modes d'actions, leur nature chimique… sont variés. Certaines sont mortelles, d'autres provoquent des troubles limités… Certaines sont la seule cause de la pathologie (intoxinations), la plupart impliquent une multiplication du microorganisme.
 Elles sont, le plus souvent, sécrétées et qualifiées d'exotoxines les opposant à des endotoxines, substances appartenant à la structure même de l'être vivant et libérées par la lyse microbienne, limitées aux lipopolysaccharides de bacilles Gram négatif. Cette distinction n'est plus aujourd'hui considérée comme pertinente.
@@ -561,7 +575,9 @@
           <t>Vocabulaire spécifique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans leur mode d'action, deux types peuvent être distingués :
 La toxine agit seule sans intervention de l'être vivant qui l'émet : on parle d'intoxination. C'est le cas de l'ingestion de l'« entérotoxine staphylococcique », de la toxine botulinique, de certaines phycotoxines produites par les algues unicellulaires (Dinophyta par exemple) retrouvées dans les fruits de mer.
@@ -601,7 +617,9 @@
           <t>Les toxines chez les végétaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">À compléter.
 La mort de Socrate fait de la cigüe un prototype de poison végétal.
@@ -634,7 +652,9 @@
           <t>Toxines des « protozoaires » (notamment microalgues ou dinoflagellés)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces toxines sont essentiellement celles de Dinoflagellés, eucaryotes du règne des Chromista. Elles sont nommées dinotoxines.
 Ce sont de petites molécules qui peuvent être des neurotoxines paralysantes ou amnésiantes, des toxines diarrhéinogènes (consommation de coquillages le plus souvent). Voir l'article Dinophyta.
@@ -666,11 +686,48 @@
           <t>Toxines animales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Les venins de serpents sont l'exemple le plus important de toxines animales mais d'autres animaux peuvent produire des toxines dangereuses (hyménoptères comme l'abeille, batraciens par exemple…).
-Neurotoxines
-L'araignée veuve noire.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les venins de serpents sont l'exemple le plus important de toxines animales mais d'autres animaux peuvent produire des toxines dangereuses (hyménoptères comme l'abeille, batraciens par exemple…).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Toxine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Toxine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Toxines animales</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Neurotoxines</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>L'araignée veuve noire.
 La plupart des scorpions
 La boîte méduse
 Serpents élapides
@@ -678,43 +735,113 @@
 La pieuvre à anneaux bleus
 Poisson venimeux
 Grenouilles
-Palythoa corail
-Myotoxines
-Les myotoxines sont de petits peptides basiques trouvés dans les venins de serpent et de lézard. Ils causent des dommages aux tissus musculaires par un mécanisme basé sur des récepteurs non enzymatiques. Les organismes qui possèdent des myotoxines comprennent :
+Palythoa corail</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Toxine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Toxine</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Toxines animales</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Myotoxines</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Les myotoxines sont de petits peptides basiques trouvés dans les venins de serpent et de lézard. Ils causent des dommages aux tissus musculaires par un mécanisme basé sur des récepteurs non enzymatiques. Les organismes qui possèdent des myotoxines comprennent :
 serpent à sonnette
-lézard perlé
-Cytotoxines
-Apitoxine, des abeilles mellifères
+lézard perlé</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Toxine</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Toxine</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Toxines animales</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Cytotoxines</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Apitoxine, des abeilles mellifères
 Cardiotoxine III, du cobra chinois
 Hémotoxine, de vipères</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Toxine</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Biochimie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Toxine</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Toxine</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Toxine</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Toxines fongiques (mycéliennes)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Les champignons microscopiques produisent assez rarement des toxines.
 Quelques champignons formant des fructifications bien visibles dans les forêts sont très toxiques quand ils sont consommés. Le prototype est l'amanite phalloïde.
@@ -724,37 +851,77 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Toxine</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Biochimie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Toxine</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Toxine</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Toxine</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Toxines bactériennes</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Historique
-En 1877, Pasteur veut tester l'hypothèse selon laquelle le bacille du charbon ne causerait l'état morbide que de façon indirecte, en produisant un « ferment diastasique soluble » qui serait l'agent pathogène immédiat. Il prélève le sang d'un animal qui vient de mourir du charbon, le filtre de façon à en ôter les bacilles et inocule le filtrat à un animal sain. L'animal récepteur ne développe pas la maladie et Pasteur estime (erronément) que cette expérience « écarte complètement l'hypothèse du ferment soluble ». Dans une publication ultérieure, toujours en 1877, Pasteur note toutefois que le sang filtré, s'il ne cause pas la maladie, rend les globules agglutinatifs, autant et même plus que dans la maladie, et envisage que ce soit l'effet d'une « diastase » formée par les bacilles.
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1877, Pasteur veut tester l'hypothèse selon laquelle le bacille du charbon ne causerait l'état morbide que de façon indirecte, en produisant un « ferment diastasique soluble » qui serait l'agent pathogène immédiat. Il prélève le sang d'un animal qui vient de mourir du charbon, le filtre de façon à en ôter les bacilles et inocule le filtrat à un animal sain. L'animal récepteur ne développe pas la maladie et Pasteur estime (erronément) que cette expérience « écarte complètement l'hypothèse du ferment soluble ». Dans une publication ultérieure, toujours en 1877, Pasteur note toutefois que le sang filtré, s'il ne cause pas la maladie, rend les globules agglutinatifs, autant et même plus que dans la maladie, et envisage que ce soit l'effet d'une « diastase » formée par les bacilles.
 Après ce demi-échec de Pasteur, Loeffler, en 1884, constate que, chez les animaux morts à la suite d'une inoculation du bacille de la diphtérie, les microbes restent proches du point d'inoculation et en conclut que le bacille « doit sécréter un poison, une toxine, qui, elle, ne reste pas in loco, mais envahit tous les organes vitaux du corps ». Cette toxine (toxine diphtérique) pressentie par Loeffler fut isolée en 1888 par les pasteuriens Roux et Yersin, qui démontrèrent son caractère pathogène. C'était l'entrée officielle de la notion de toxine dans la microbiologie.
-Différentes toxines bactériennes
-De nombreuses bactéries produisent des toxines provoquant des troubles importants.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Toxine</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Toxine</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Toxines bactériennes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Différentes toxines bactériennes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreuses bactéries produisent des toxines provoquant des troubles importants.
 Quelques exemples :
 toxine botulinique, neurotoxine très dangereuse déclenchant une paralysie flasque (botulisme) produite dans un aliment par une bactérie (Clostridium botulinum)
 toxine diphtérique toxine bloquant la synthèse des protéines produite par une bactérie, Corynebacterium diphtheriae se développant lors d'une angine (diphtérie)
@@ -769,31 +936,33 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Toxine</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Biochimie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Toxine</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Toxine</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Toxine</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Dosage des toxines</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Le dosage des toxines est réalisé comme celui de nombreuses molécules par des techniques utilisant le plus souvent (au moins pour les protéines) des anticorps spécifiques. Il s'agit d'immunoenzymologie, de immunochimiluminescence…
 Le pouvoir pathogène est très rarement utilisé, avec utilisation d’anticorps neutralisants (toxinotypie). C'est le cas de la toxine botulinique :
